--- a/REGULAR/ONT/LUNA, GUILLERMA.xlsx
+++ b/REGULAR/ONT/LUNA, GUILLERMA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>11/21,22/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2/1-3/2024</t>
   </si>
 </sst>
 </file>
@@ -688,6 +694,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -700,20 +715,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,7 +1416,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1459,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1523,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1583,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1649,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1712,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1810,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1869,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1934,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1977,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2052,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2238,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2304,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2362,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2428,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2484,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2559,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2602,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2668,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2724,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2822,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2885,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,7 +2951,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3353,12 +3359,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="4155" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,14 +3394,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3406,14 +3412,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3426,14 +3432,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3459,18 +3465,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3517,7 +3523,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.863</v>
+        <v>51.363</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3527,7 +3533,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>81.5</v>
+        <v>84</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5165,13 +5171,15 @@
       <c r="B87" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5185,13 +5193,15 @@
         <v>45291</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -5199,8 +5209,8 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45322</v>
+      <c r="A89" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5218,11 +5228,15 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B90" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>3</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -5232,11 +5246,13 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5254,7 +5270,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5272,7 +5288,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5290,7 +5306,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5308,7 +5324,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5326,7 +5342,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5344,7 +5360,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5362,7 +5378,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5380,7 +5396,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5398,7 +5414,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5416,7 +5432,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5434,7 +5450,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5452,7 +5468,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5470,7 +5486,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5488,7 +5504,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5506,7 +5522,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5524,7 +5540,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5542,7 +5558,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5560,7 +5576,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5578,7 +5594,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5596,7 +5612,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5614,7 +5630,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5632,7 +5648,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5650,7 +5666,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5668,7 +5684,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5686,7 +5702,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5704,7 +5720,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5722,7 +5738,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5740,7 +5756,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5757,7 +5773,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>46234</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5997,34 +6015,50 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6093,14 +6127,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6114,17 +6148,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6138,17 +6172,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6174,18 +6208,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
